--- a/hear/sqlpad/cache/gT8IVTheryUHI8nO.xlsx
+++ b/hear/sqlpad/cache/gT8IVTheryUHI8nO.xlsx
@@ -372,116 +372,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
         <v>bot</v>
       </c>
       <c r="B1" t="str">
+        <v>wiki</v>
+      </c>
+      <c r="C1" t="str">
         <v>username</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>cnt</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Thierry Caro</v>
+        <v>arwiki</v>
       </c>
       <c r="C2" t="str">
-        <v>1025</v>
+        <v>JarBot</v>
+      </c>
+      <c r="D2" t="str">
+        <v>1092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>HastaLaVi2</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C3" t="str">
-        <v>268</v>
+        <v>Research Bot</v>
+      </c>
+      <c r="D3" t="str">
+        <v>472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="str">
-        <v>Tuvalkin</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C4" t="str">
-        <v>105</v>
+        <v>BotMultichill</v>
+      </c>
+      <c r="D4" t="str">
+        <v>411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="str">
-        <v>Jordyvandebunt</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C5" t="str">
-        <v>61</v>
+        <v>SuccuBot</v>
+      </c>
+      <c r="D5" t="str">
+        <v>333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <v>Hålslaget</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C6" t="str">
-        <v>55</v>
+        <v>Edoderoobot</v>
+      </c>
+      <c r="D6" t="str">
+        <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="str">
-        <v>Jon Harald Søby</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C7" t="str">
-        <v>52</v>
+        <v>Mr.Ibrahembot</v>
+      </c>
+      <c r="D7" t="str">
+        <v>255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="str">
-        <v>151 cp</v>
+        <v>rowiki</v>
       </c>
       <c r="C8" t="str">
-        <v>32</v>
+        <v>Andrebot</v>
+      </c>
+      <c r="D8" t="str">
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="str">
-        <v>Marek Koudelka</v>
+        <v>commonswiki</v>
       </c>
       <c r="C9" t="str">
-        <v>32</v>
+        <v>SchlurcherBot</v>
+      </c>
+      <c r="D9" t="str">
+        <v>216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="str">
-        <v>Eurodyne</v>
+        <v>commonswiki</v>
       </c>
       <c r="C10" t="str">
-        <v>31</v>
+        <v>KolbertBot</v>
+      </c>
+      <c r="D10" t="str">
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -489,10 +519,13 @@
         <v>0</v>
       </c>
       <c r="B11" t="str">
-        <v>Zigzig20s</v>
+        <v>commonswiki</v>
       </c>
       <c r="C11" t="str">
-        <v>29</v>
+        <v>Thesupermat</v>
+      </c>
+      <c r="D11" t="str">
+        <v>193</v>
       </c>
     </row>
     <row r="12">
@@ -500,109 +533,139 @@
         <v>1</v>
       </c>
       <c r="B12" t="str">
-        <v>RudolphousBot</v>
+        <v>cebwiki</v>
       </c>
       <c r="C12" t="str">
-        <v>599</v>
+        <v>Lsjbot</v>
+      </c>
+      <c r="D12" t="str">
+        <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="str">
-        <v>Research Bot</v>
+        <v>commonswiki</v>
       </c>
       <c r="C13" t="str">
-        <v>332</v>
+        <v>Sakhalinio</v>
+      </c>
+      <c r="D13" t="str">
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="str">
-        <v>Mr.Ibrahembot</v>
+        <v>trwiki</v>
       </c>
       <c r="C14" t="str">
-        <v>137</v>
+        <v>Teacher0691</v>
+      </c>
+      <c r="D14" t="str">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="str">
-        <v>QBA-bot</v>
+        <v>commonswiki</v>
       </c>
       <c r="C15" t="str">
-        <v>135</v>
+        <v>StellarD</v>
+      </c>
+      <c r="D15" t="str">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="str">
-        <v>DatBot</v>
+        <v>enwiki</v>
       </c>
       <c r="C16" t="str">
-        <v>130</v>
+        <v>Molestash</v>
+      </c>
+      <c r="D16" t="str">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="str">
-        <v>SchlurcherBot</v>
+        <v>wikidatawiki</v>
       </c>
       <c r="C17" t="str">
-        <v>116</v>
+        <v>Drupol</v>
+      </c>
+      <c r="D17" t="str">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="str">
-        <v>KolbertBot</v>
+        <v>frwiktionary</v>
       </c>
       <c r="C18" t="str">
-        <v>115</v>
+        <v>Arpyia</v>
+      </c>
+      <c r="D18" t="str">
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="str">
-        <v>Andrebot</v>
+        <v>elwiki</v>
       </c>
       <c r="C19" t="str">
-        <v>115</v>
+        <v>ΖῷονΠολιτικόν</v>
+      </c>
+      <c r="D19" t="str">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" t="str">
-        <v>Lsjbot</v>
+        <v>commonswiki</v>
       </c>
       <c r="C20" t="str">
-        <v>101</v>
+        <v>Zinneke</v>
+      </c>
+      <c r="D20" t="str">
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" t="str">
-        <v>TuanminhBot</v>
+        <v>hrwiki</v>
       </c>
       <c r="C21" t="str">
-        <v>76</v>
+        <v>Kubura</v>
+      </c>
+      <c r="D21" t="str">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
